--- a/Selenium/Bugs/data/genre/알앤비.xlsx
+++ b/Selenium/Bugs/data/genre/알앤비.xlsx
@@ -220,13 +220,13 @@
     <t>Runaway</t>
   </si>
   <si>
-    <t>LIWY #2</t>
+    <t xml:space="preserve">LIWY #2 </t>
   </si>
   <si>
     <t>WALK IN THE PARK</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>In My Feelings</t>
   </si>
   <si>
     <t>Another Love</t>
@@ -442,7 +442,7 @@
     <t>Get You The Moon (feat. Snøw)</t>
   </si>
   <si>
-    <t>In With the New</t>
+    <t xml:space="preserve">In With the New </t>
   </si>
   <si>
     <t>Helga.</t>
@@ -529,7 +529,7 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>Living For The City</t>
+    <t xml:space="preserve">Living For The City </t>
   </si>
   <si>
     <t>11월27일 (feat. jane)</t>
@@ -643,7 +643,7 @@
     <t>처음 (feat. Sole)</t>
   </si>
   <si>
-    <t>너와 나의 시작</t>
+    <t xml:space="preserve">너와 나의 시작 </t>
   </si>
   <si>
     <t>너와 함께 (PROD. 다비 (DAVII))</t>
